--- a/medicine/Enfance/Frédéric_Stehr/Frédéric_Stehr.xlsx
+++ b/medicine/Enfance/Frédéric_Stehr/Frédéric_Stehr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Stehr</t>
+          <t>Frédéric_Stehr</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frédéric Stehr, né le 31 mars 1956 à Paris, est un auteur et illustrateur français de littérature d'enfance et de jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Stehr</t>
+          <t>Frédéric_Stehr</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frédéric Stehr est né sixième d’une famille de sept enfants[1]. Il a fréquenté un moment la section sérigraphie de l’Ecole professionnelle supérieure des arts graphiques de Paris. Néanmoins, il préfère crayonner dans les jardins publics, des heures durant. Il abandonne les Beaux-Arts et exerce divers métiers pour gagner sa vie (peintre, charpentier). C’est lors d'une mission d'intérim à l'École des loisirs que son envie de dessiner et de raconter en images se confirme[2]. Son premier album, "Je n’ai pas faim", paraît en 1983. Depuis, il a publié plus de soixante-dix albums dont la série des "Foufours" avec son frère, Gérald Stehr, celle des "Calinours" avec Alain Broutin, celle des "Mariette et Soupir" avec Irène Schwartz et celle des "Flocon" avec divers auteurs. Ses personnages de prédilection sont incontestablement les ours (Foufours, Calinours et Flocon).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frédéric Stehr est né sixième d’une famille de sept enfants. Il a fréquenté un moment la section sérigraphie de l’Ecole professionnelle supérieure des arts graphiques de Paris. Néanmoins, il préfère crayonner dans les jardins publics, des heures durant. Il abandonne les Beaux-Arts et exerce divers métiers pour gagner sa vie (peintre, charpentier). C’est lors d'une mission d'intérim à l'École des loisirs que son envie de dessiner et de raconter en images se confirme. Son premier album, "Je n’ai pas faim", paraît en 1983. Depuis, il a publié plus de soixante-dix albums dont la série des "Foufours" avec son frère, Gérald Stehr, celle des "Calinours" avec Alain Broutin, celle des "Mariette et Soupir" avec Irène Schwartz et celle des "Flocon" avec divers auteurs. Ses personnages de prédilection sont incontestablement les ours (Foufours, Calinours et Flocon).
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Stehr</t>
+          <t>Frédéric_Stehr</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En tant qu'auteur et illustrateur
+          <t>En tant qu'auteur et illustrateur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Je n'ai pas faim, École des loisirs, 1983
 L'abominable Guillaume des neiges, École des loisirs, Albums et Lutin poche, 1983
 Coin-Coin, École des loisirs, Albums et Lutin poche, 1985
@@ -568,7 +588,43 @@
 Copains-Câlins, École des loisirs, Pastel, 2017
 L'orage, École des loisirs, Pastel, 2018
 Tu ne dors pas, Isidore ?, École des loisirs, Pastel, 2019
-En tant qu'illustrateur
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Frédéric_Stehr</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_Stehr</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En tant qu'illustrateur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le moulin à paroles, abécédaire, École des loisirs, 1983 (auteur : Jo Hoestlandt)
 Les chevaux du Tzigane, École des loisirs, Renard poche, 1983 (auteur : Jacques Delzongle)
 Marmelade Jim, École des loisirs, Joie de lire, 1984 (auteur : Alan Sillitoe)
